--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Bmp2-Bmpr1a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Bmp2-Bmpr1a.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.445484</v>
+        <v>0.3915976666666667</v>
       </c>
       <c r="H2">
-        <v>4.336452</v>
+        <v>1.174793</v>
       </c>
       <c r="I2">
-        <v>0.1286708197254238</v>
+        <v>0.02606065131430495</v>
       </c>
       <c r="J2">
-        <v>0.1286708197254238</v>
+        <v>0.02606065131430495</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.918858999999999</v>
+        <v>1.443038</v>
       </c>
       <c r="N2">
-        <v>29.756577</v>
+        <v>4.329114</v>
       </c>
       <c r="O2">
-        <v>0.160764128269069</v>
+        <v>0.0289666880885598</v>
       </c>
       <c r="P2">
-        <v>0.160764128269069</v>
+        <v>0.0289666880885598</v>
       </c>
       <c r="Q2">
-        <v>14.337551982756</v>
+        <v>0.5650903137113333</v>
       </c>
       <c r="R2">
-        <v>129.037967844804</v>
+        <v>5.085812823402001</v>
       </c>
       <c r="S2">
-        <v>0.02068565216682429</v>
+        <v>0.0007548907580061876</v>
       </c>
       <c r="T2">
-        <v>0.02068565216682429</v>
+        <v>0.0007548907580061875</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.445484</v>
+        <v>0.3915976666666667</v>
       </c>
       <c r="H3">
-        <v>4.336452</v>
+        <v>1.174793</v>
       </c>
       <c r="I3">
-        <v>0.1286708197254238</v>
+        <v>0.02606065131430495</v>
       </c>
       <c r="J3">
-        <v>0.1286708197254238</v>
+        <v>0.02606065131430495</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,25 +617,25 @@
         <v>29.20351433333333</v>
       </c>
       <c r="N3">
-        <v>87.61054299999999</v>
+        <v>87.61054300000001</v>
       </c>
       <c r="O3">
-        <v>0.47332838627826</v>
+        <v>0.5862140087672342</v>
       </c>
       <c r="P3">
-        <v>0.47332838627826</v>
+        <v>0.5862140087672342</v>
       </c>
       <c r="Q3">
-        <v>42.21321271260399</v>
+        <v>11.43602807139989</v>
       </c>
       <c r="R3">
-        <v>379.9189144134359</v>
+        <v>102.924252642599</v>
       </c>
       <c r="S3">
-        <v>0.06090355146173576</v>
+        <v>0.0152771188780438</v>
       </c>
       <c r="T3">
-        <v>0.06090355146173577</v>
+        <v>0.0152771188780438</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.445484</v>
+        <v>0.3915976666666667</v>
       </c>
       <c r="H4">
-        <v>4.336452</v>
+        <v>1.174793</v>
       </c>
       <c r="I4">
-        <v>0.1286708197254238</v>
+        <v>0.02606065131430495</v>
       </c>
       <c r="J4">
-        <v>0.1286708197254238</v>
+        <v>0.02606065131430495</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.575837</v>
+        <v>19.170603</v>
       </c>
       <c r="N4">
-        <v>67.72751100000001</v>
+        <v>57.511809</v>
       </c>
       <c r="O4">
-        <v>0.365907485452671</v>
+        <v>0.384819303144206</v>
       </c>
       <c r="P4">
-        <v>0.365907485452671</v>
+        <v>0.384819303144206</v>
       </c>
       <c r="Q4">
-        <v>32.633011170108</v>
+        <v>7.507163403393001</v>
       </c>
       <c r="R4">
-        <v>293.697100530972</v>
+        <v>67.56447063053702</v>
       </c>
       <c r="S4">
-        <v>0.04708161609686377</v>
+        <v>0.01002864167825497</v>
       </c>
       <c r="T4">
-        <v>0.04708161609686377</v>
+        <v>0.01002864167825497</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>18.876939</v>
       </c>
       <c r="I5">
-        <v>0.5601148623429528</v>
+        <v>0.4187506438669658</v>
       </c>
       <c r="J5">
-        <v>0.5601148623429528</v>
+        <v>0.4187506438669658</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.918858999999999</v>
+        <v>1.443038</v>
       </c>
       <c r="N5">
-        <v>29.756577</v>
+        <v>4.329114</v>
       </c>
       <c r="O5">
-        <v>0.160764128269069</v>
+        <v>0.0289666880885598</v>
       </c>
       <c r="P5">
-        <v>0.160764128269069</v>
+        <v>0.0289666880885598</v>
       </c>
       <c r="Q5">
-        <v>62.412565430867</v>
+        <v>9.080046766893998</v>
       </c>
       <c r="R5">
-        <v>561.713088877803</v>
+        <v>81.720420902046</v>
       </c>
       <c r="S5">
-        <v>0.09004637757511441</v>
+        <v>0.01212981928777799</v>
       </c>
       <c r="T5">
-        <v>0.09004637757511441</v>
+        <v>0.01212981928777798</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>18.876939</v>
       </c>
       <c r="I6">
-        <v>0.5601148623429528</v>
+        <v>0.4187506438669658</v>
       </c>
       <c r="J6">
-        <v>0.5601148623429528</v>
+        <v>0.4187506438669658</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,13 +803,13 @@
         <v>29.20351433333333</v>
       </c>
       <c r="N6">
-        <v>87.61054299999999</v>
+        <v>87.61054300000001</v>
       </c>
       <c r="O6">
-        <v>0.47332838627826</v>
+        <v>0.5862140087672342</v>
       </c>
       <c r="P6">
-        <v>0.47332838627826</v>
+        <v>0.5862140087672342</v>
       </c>
       <c r="Q6">
         <v>183.7576528853197</v>
@@ -818,10 +818,10 @@
         <v>1653.818875967877</v>
       </c>
       <c r="S6">
-        <v>0.2651182639232596</v>
+        <v>0.2454774936151145</v>
       </c>
       <c r="T6">
-        <v>0.2651182639232596</v>
+        <v>0.2454774936151145</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>18.876939</v>
       </c>
       <c r="I7">
-        <v>0.5601148623429528</v>
+        <v>0.4187506438669658</v>
       </c>
       <c r="J7">
-        <v>0.5601148623429528</v>
+        <v>0.4187506438669658</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>22.575837</v>
+        <v>19.170603</v>
       </c>
       <c r="N7">
-        <v>67.72751100000001</v>
+        <v>57.511809</v>
       </c>
       <c r="O7">
-        <v>0.365907485452671</v>
+        <v>0.384819303144206</v>
       </c>
       <c r="P7">
-        <v>0.365907485452671</v>
+        <v>0.384819303144206</v>
       </c>
       <c r="Q7">
-        <v>142.054232640981</v>
+        <v>120.627434474739</v>
       </c>
       <c r="R7">
-        <v>1278.488093768829</v>
+        <v>1085.646910272651</v>
       </c>
       <c r="S7">
-        <v>0.2049502208445788</v>
+        <v>0.1611433309640734</v>
       </c>
       <c r="T7">
-        <v>0.2049502208445788</v>
+        <v>0.1611433309640734</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.496172</v>
+        <v>8.342485333333334</v>
       </c>
       <c r="H8">
-        <v>10.488516</v>
+        <v>25.027456</v>
       </c>
       <c r="I8">
-        <v>0.3112143179316233</v>
+        <v>0.5551887048187292</v>
       </c>
       <c r="J8">
-        <v>0.3112143179316232</v>
+        <v>0.5551887048187292</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.918858999999999</v>
+        <v>1.443038</v>
       </c>
       <c r="N8">
-        <v>29.756577</v>
+        <v>4.329114</v>
       </c>
       <c r="O8">
-        <v>0.160764128269069</v>
+        <v>0.0289666880885598</v>
       </c>
       <c r="P8">
-        <v>0.160764128269069</v>
+        <v>0.0289666880885598</v>
       </c>
       <c r="Q8">
-        <v>34.678037107748</v>
+        <v>12.03852335044267</v>
       </c>
       <c r="R8">
-        <v>312.102333969732</v>
+        <v>108.346710153984</v>
       </c>
       <c r="S8">
-        <v>0.05003209852713032</v>
+        <v>0.01608197804277562</v>
       </c>
       <c r="T8">
-        <v>0.05003209852713031</v>
+        <v>0.01608197804277562</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.496172</v>
+        <v>8.342485333333334</v>
       </c>
       <c r="H9">
-        <v>10.488516</v>
+        <v>25.027456</v>
       </c>
       <c r="I9">
-        <v>0.3112143179316233</v>
+        <v>0.5551887048187292</v>
       </c>
       <c r="J9">
-        <v>0.3112143179316232</v>
+        <v>0.5551887048187292</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,25 +989,25 @@
         <v>29.20351433333333</v>
       </c>
       <c r="N9">
-        <v>87.61054299999999</v>
+        <v>87.61054300000001</v>
       </c>
       <c r="O9">
-        <v>0.47332838627826</v>
+        <v>0.5862140087672342</v>
       </c>
       <c r="P9">
-        <v>0.47332838627826</v>
+        <v>0.5862140087672342</v>
       </c>
       <c r="Q9">
-        <v>102.1005091137987</v>
+        <v>243.6298900076231</v>
       </c>
       <c r="R9">
-        <v>918.904582024188</v>
+        <v>2192.669010068608</v>
       </c>
       <c r="S9">
-        <v>0.1473065708932646</v>
+        <v>0.3254593962740759</v>
       </c>
       <c r="T9">
-        <v>0.1473065708932646</v>
+        <v>0.3254593962740759</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.496172</v>
+        <v>8.342485333333334</v>
       </c>
       <c r="H10">
-        <v>10.488516</v>
+        <v>25.027456</v>
       </c>
       <c r="I10">
-        <v>0.3112143179316233</v>
+        <v>0.5551887048187292</v>
       </c>
       <c r="J10">
-        <v>0.3112143179316232</v>
+        <v>0.5551887048187292</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>22.575837</v>
+        <v>19.170603</v>
       </c>
       <c r="N10">
-        <v>67.72751100000001</v>
+        <v>57.511809</v>
       </c>
       <c r="O10">
-        <v>0.365907485452671</v>
+        <v>0.384819303144206</v>
       </c>
       <c r="P10">
-        <v>0.365907485452671</v>
+        <v>0.384819303144206</v>
       </c>
       <c r="Q10">
-        <v>78.92900919596401</v>
+        <v>159.930474358656</v>
       </c>
       <c r="R10">
-        <v>710.3610827636761</v>
+        <v>1439.374269227904</v>
       </c>
       <c r="S10">
-        <v>0.1138756485112284</v>
+        <v>0.2136473305018777</v>
       </c>
       <c r="T10">
-        <v>0.1138756485112284</v>
+        <v>0.2136473305018776</v>
       </c>
     </row>
   </sheetData>
